--- a/biology/Botanique/Joseph_Hubert/Joseph_Hubert.xlsx
+++ b/biology/Botanique/Joseph_Hubert/Joseph_Hubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Hubert est un scientifique, savant réunionnais, botaniste et naturaliste, né à Saint-Benoît le 23 avril 1747 et mort le 19 avril 1825. Il a vécu dans ses propriétés aujourd'hui disparues à Bras-Mussard puis au Boudoir (Saint-Benoît). 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il épouse en 1802 Gertrude Félicité Lebeau, dont il aura une descendance. Il est le grand-oncle de Louis Henri Hubert Delisle, gouverneur de l'île de la Réunion.
 Premier à expliquer le mécanisme des cyclones tropicaux, il a acquis toutes ses connaissances en observant la nature, et notamment le Piton de la Fournaise, dont il assura une veille.
-Il a favorisé, à la Réunion, la culture du café et de la muscade. Il a par ailleurs introduit dans l’île l’ayapana, le safran oriental (curcuma). Sa plus grande gloire reste la multiplication d’un giroflier expédié par l’intendant Pierre Poivre : cette culture enrichit la Côte au vent durant un demi-siècle. Il contribua aussi à l’introduction et à la propagation de plusieurs végétaux comme le jamalac, le jamrosat, le mangoustanier, l’évi, le cacaoyer et la vanille[2].
+Il a favorisé, à la Réunion, la culture du café et de la muscade. Il a par ailleurs introduit dans l’île l’ayapana, le safran oriental (curcuma). Sa plus grande gloire reste la multiplication d’un giroflier expédié par l’intendant Pierre Poivre : cette culture enrichit la Côte au vent durant un demi-siècle. Il contribua aussi à l’introduction et à la propagation de plusieurs végétaux comme le jamalac, le jamrosat, le mangoustanier, l’évi, le cacaoyer et la vanille.
 Il a été l’un des créateurs du quartier de Saint-Joseph.
-En 1821, il a reçu en  la médaille d’or de l’Agriculture française des mains du gouverneur Louis-Henri de Freycinet[3]. Pour lui rendre hommage, Jean-Baptiste Bory de Saint-Vincent a nommé Hubertia ambavilla une plante appelée ambaville à La Réunion.
+En 1821, il a reçu en  la médaille d’or de l’Agriculture française des mains du gouverneur Louis-Henri de Freycinet. Pour lui rendre hommage, Jean-Baptiste Bory de Saint-Vincent a nommé Hubertia ambavilla une plante appelée ambaville à La Réunion.
 Un des collèges de Saint-Joseph porte son nom.
 </t>
         </is>
@@ -547,9 +561,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre royal et militaire de Saint-Louis[4] en 1818[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre royal et militaire de Saint-Louis en 1818.
 </t>
         </is>
       </c>
